--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/15/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.90479999999999</v>
+        <v>12.83119999999999</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.4006</v>
+        <v>13.63409999999999</v>
       </c>
     </row>
     <row r="9">
@@ -638,13 +638,13 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.65950000000002</v>
+        <v>-14.82640000000003</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>12.62019999999999</v>
+        <v>12.43739999999999</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.83520000000001</v>
+        <v>13.7269</v>
       </c>
     </row>
     <row r="15">
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.1126</v>
+        <v>11.97019999999999</v>
       </c>
     </row>
     <row r="23">
